--- a/데이터셋/2019_03_14_14차(교수님강의1).xlsx
+++ b/데이터셋/2019_03_14_14차(교수님강의1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NA\git\Project\Dataset\데이터셋\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75B1CA5-F37D-423A-8829-184356CA51EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B08AAF-7E81-4E04-885B-0EFEBF868259}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="2160" windowWidth="15750" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="599">
   <si>
     <t>[[교수님_성함]] 교수님이 하셨던 강의가 뭐야?</t>
   </si>
@@ -1818,6 +1818,10 @@
   </si>
   <si>
     <t>이번에 [[교수님_성함]][[2]] 하기로 예정된 강좌 부탁해</t>
+  </si>
+  <si>
+    <t>[[교수님_성함]] 강좌 이름 부탁드려요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2793,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A599"/>
+  <dimension ref="A1:A600"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A567" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A600" sqref="A600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5797,6 +5801,11 @@
     <row r="599" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>517</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>
